--- a/TCS - Full Stack Web Developer - MEAN Stack - Schedule - Updated.xlsx
+++ b/TCS - Full Stack Web Developer - MEAN Stack - Schedule - Updated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.m\Downloads\Accounts\TCS\MEAN Stack\Batch 4\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\TCS MEAN Stack Training 2021\Notes\MyRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3274635B-2640-4EED-BC39-A56876D9008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Project Deadlines" sheetId="7" r:id="rId5"/>
     <sheet name="Self Learning Due Dates" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="235">
   <si>
     <t xml:space="preserve">Learning Unit </t>
   </si>
@@ -765,11 +764,17 @@
   <si>
     <t>Socket IO integration - Practice 3 (Contd)</t>
   </si>
+  <si>
+    <t>Node.js Absolute Beginners Guide - Learn Node from Scratch(phase 2 section 9)</t>
+  </si>
+  <si>
+    <t>Restful API Design with Node, Express, and MongoDB(phase 3 section 2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
@@ -1628,21 +1633,117 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,119 +1771,54 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1792,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1807,42 +1840,53 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1857,45 +1901,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,6 +1910,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1923,16 +1938,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1945,15 +1968,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1964,21 +1978,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{24EBDB40-7EB3-48C6-9BE3-C158EF544F50}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2190,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2200,55 +2205,55 @@
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="34"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="34"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="122"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="114"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
@@ -2272,14 +2277,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="10">
         <v>3</v>
       </c>
@@ -2303,14 +2308,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="118"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="10">
         <v>17</v>
       </c>
@@ -2334,21 +2339,21 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129" t="s">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:23" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -2391,769 +2396,769 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="109" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="97">
         <v>3.5</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="97">
         <v>1</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="98">
         <v>44403</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="133"/>
-      <c r="B9" s="96"/>
+    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="96"/>
-    </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="133"/>
-      <c r="B10" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="110"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="119"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
-      <c r="B11" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="110"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="119"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="96"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="133"/>
-      <c r="B12" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="119"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="110"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="119"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="97" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="123"/>
-      <c r="I13" s="96"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="108" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="108">
         <v>3.5</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="108">
         <v>2</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="130">
         <v>44404</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="96"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="96"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="96"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="96"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="110"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="96"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="110"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
+    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97">
+      <c r="D19" s="108"/>
+      <c r="E19" s="108">
         <v>3</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="108">
         <v>44263</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="96"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="110"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
+    <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="108">
         <v>3.5</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="108">
         <v>3</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="130">
         <v>44405</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="137"/>
-      <c r="I20" s="96"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="110"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
+    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="96"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="97"/>
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="96"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="110"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="96"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="96"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="96"/>
-    </row>
-    <row r="26" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="96"/>
-    </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="110"/>
+    </row>
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="96"/>
-    </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="110"/>
+    </row>
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="96"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="105" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="110"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="114" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="97">
         <v>3.5</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="97">
         <v>4</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="98">
         <v>44406</v>
       </c>
-      <c r="G29" s="134" t="s">
+      <c r="G29" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="137"/>
-      <c r="I29" s="96"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="96"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="110"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="138"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="96"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="106"/>
-      <c r="B31" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="110"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="138"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="96"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="110"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="138"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="96"/>
-    </row>
-    <row r="33" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="110"/>
+    </row>
+    <row r="33" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="138"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="96"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="110"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="138"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="119">
+      <c r="D34" s="96">
         <v>3.5</v>
       </c>
-      <c r="E34" s="119">
+      <c r="E34" s="96">
         <v>5</v>
       </c>
-      <c r="F34" s="135">
+      <c r="F34" s="121">
         <v>44407</v>
       </c>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="96"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="96"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="110"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="138"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119">
+      <c r="D35" s="96"/>
+      <c r="E35" s="96">
         <v>5</v>
       </c>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="96"/>
-    </row>
-    <row r="36" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="110"/>
+    </row>
+    <row r="36" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="138"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="96"/>
-    </row>
-    <row r="37" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="110"/>
+    </row>
+    <row r="37" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="138"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="96"/>
-    </row>
-    <row r="38" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="110"/>
+    </row>
+    <row r="38" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="138"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="110">
+      <c r="D38" s="93">
         <v>3.5</v>
       </c>
-      <c r="E38" s="110">
+      <c r="E38" s="93">
         <v>6</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="99">
         <v>44410</v>
       </c>
-      <c r="G38" s="110" t="s">
+      <c r="G38" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="H38" s="137"/>
-      <c r="I38" s="110">
+      <c r="H38" s="103"/>
+      <c r="I38" s="93">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
-      <c r="B39" s="96"/>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="138"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="111"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106"/>
-      <c r="B40" s="96"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="94"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="138"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="111"/>
-    </row>
-    <row r="41" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="96"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="94"/>
+    </row>
+    <row r="41" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="138"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="111"/>
-    </row>
-    <row r="42" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="106"/>
-      <c r="B42" s="96"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="94"/>
+    </row>
+    <row r="42" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="138"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="111"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="94"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="132" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="110">
+      <c r="D43" s="93">
         <v>3.5</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="93">
         <v>7</v>
       </c>
-      <c r="F43" s="107">
+      <c r="F43" s="99">
         <v>44411</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="H43" s="119"/>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
-      <c r="B44" s="101"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="94"/>
+    </row>
+    <row r="44" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="135"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="111"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
-      <c r="B45" s="101"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="94"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="111"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
-      <c r="B46" s="101"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="94"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="135"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="111"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
-      <c r="B47" s="101"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="94"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="135"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="111"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
-      <c r="B48" s="101"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="94"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="135"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="111"/>
-    </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
-      <c r="B49" s="101"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="94"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="135"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="111"/>
-    </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
-      <c r="B50" s="101"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="94"/>
+    </row>
+    <row r="50" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="135"/>
+      <c r="B50" s="133"/>
       <c r="C50" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="111"/>
-    </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103"/>
-      <c r="B51" s="101"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="94"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="135"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="110">
+      <c r="D51" s="93">
         <v>3.5</v>
       </c>
-      <c r="E51" s="110">
+      <c r="E51" s="93">
         <v>8</v>
       </c>
-      <c r="F51" s="107">
+      <c r="F51" s="99">
         <v>44412</v>
       </c>
-      <c r="G51" s="110" t="s">
+      <c r="G51" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="111"/>
-    </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
-      <c r="B52" s="101"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="94"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="111"/>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="103"/>
-      <c r="B53" s="101"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="94"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="135"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="111"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="103"/>
-      <c r="B54" s="101"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="94"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="135"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="111"/>
-    </row>
-    <row r="55" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="101"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="94"/>
+    </row>
+    <row r="55" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="111"/>
-    </row>
-    <row r="56" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
-      <c r="B56" s="101"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="94"/>
+    </row>
+    <row r="56" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="136"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="111"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="93" t="s">
+      <c r="D56" s="95"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="94"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="94"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="21" t="s">
         <v>146</v>
       </c>
@@ -3166,12 +3171,48 @@
       <c r="F57" s="23"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="112"/>
+      <c r="I57" s="95"/>
       <c r="J57" s="33"/>
       <c r="K57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="B43:B56"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I8:I37"/>
+    <mergeCell ref="A14:A28"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
     <mergeCell ref="I38:I57"/>
     <mergeCell ref="H43:H56"/>
     <mergeCell ref="D29:D33"/>
@@ -3188,42 +3229,6 @@
     <mergeCell ref="H14:H42"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="E43:E50"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I8:I37"/>
-    <mergeCell ref="A14:A28"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B29:B42"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="A43:A56"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3231,63 +3236,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="28" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="164"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3312,14 +3317,14 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -3343,14 +3348,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="159"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -3374,14 +3379,14 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="159"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -3405,14 +3410,14 @@
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="156"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="10">
         <v>4</v>
       </c>
@@ -3436,21 +3441,21 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3494,703 +3499,703 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="144" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="144">
         <v>3.5</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="144">
         <v>10</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="98">
         <v>44414</v>
       </c>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="141">
+      <c r="I10" s="148">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="150"/>
-      <c r="B11" s="151"/>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="161"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="160"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="150"/>
-      <c r="B12" s="151"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="149"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="161"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="160"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="150"/>
-      <c r="B13" s="151"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="149"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="161"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="160"/>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="149"/>
+    </row>
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="161"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="160"/>
-    </row>
-    <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="150"/>
-      <c r="B15" s="151"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="161"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="160"/>
-    </row>
-    <row r="16" spans="1:24" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="150"/>
-      <c r="B16" s="151"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="1:24" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="161"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="125" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="161"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="150"/>
-      <c r="B17" s="151"/>
+      <c r="I16" s="150"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="161"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="97">
         <v>3.5</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="97">
         <v>11</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="98">
         <v>44417</v>
       </c>
-      <c r="G17" s="134" t="s">
+      <c r="G17" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="141">
+      <c r="H17" s="168"/>
+      <c r="I17" s="148">
         <v>3</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="161"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="160"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="149"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="150"/>
-      <c r="B19" s="152"/>
+    <row r="19" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="160"/>
-    </row>
-    <row r="20" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="150"/>
-      <c r="B20" s="152"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="160"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="170" t="s">
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="144" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="119">
+      <c r="D21" s="96">
         <v>3.5</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="96">
         <v>12</v>
       </c>
-      <c r="F21" s="135">
+      <c r="F21" s="121">
         <v>44418</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="163"/>
-      <c r="I21" s="160"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="149"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="151"/>
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="143"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="164" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="160"/>
+      <c r="I22" s="149"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="169"/>
-      <c r="B23" s="151"/>
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="143"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="160"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="149"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="169"/>
-      <c r="B24" s="151"/>
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="143"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="119">
+      <c r="D24" s="96">
         <v>3.5</v>
       </c>
-      <c r="E24" s="119">
+      <c r="E24" s="96">
         <v>13</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="121">
         <v>44419</v>
       </c>
-      <c r="G24" s="119" t="s">
+      <c r="G24" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="H24" s="165"/>
-      <c r="I24" s="160"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="149"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="169"/>
-      <c r="B25" s="151"/>
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="143"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="160"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="169"/>
-      <c r="B26" s="151"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="149"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="143"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="160"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="169"/>
-      <c r="B27" s="151"/>
+    <row r="27" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="143"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="160"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="169"/>
-      <c r="B28" s="151"/>
+    <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="143"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="119">
+      <c r="D28" s="96">
         <v>3.5</v>
       </c>
-      <c r="E28" s="119">
+      <c r="E28" s="96">
         <v>14</v>
       </c>
-      <c r="F28" s="135">
+      <c r="F28" s="121">
         <v>44420</v>
       </c>
-      <c r="G28" s="119" t="s">
+      <c r="G28" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="165"/>
-      <c r="I28" s="160"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="169"/>
-      <c r="B29" s="151"/>
+    <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="143"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="160"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="169"/>
-      <c r="B30" s="151"/>
+    <row r="30" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="143"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="160"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="169"/>
-      <c r="B31" s="151"/>
+    <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="143"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="93">
         <v>3.5</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="93">
         <v>14</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="99">
         <v>44421</v>
       </c>
-      <c r="G31" s="110" t="s">
+      <c r="G31" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="165"/>
-      <c r="I31" s="160"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="149"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="169"/>
-      <c r="B32" s="151"/>
+    <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="143"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111">
+      <c r="D32" s="94"/>
+      <c r="E32" s="94">
         <v>14</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111" t="s">
+      <c r="F32" s="94"/>
+      <c r="G32" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="166"/>
-      <c r="I32" s="160"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="149"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="169"/>
-      <c r="B33" s="151"/>
+    <row r="33" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="143"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94">
         <v>14</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="H33" s="164" t="s">
+      <c r="H33" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="160"/>
+      <c r="I33" s="149"/>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
     </row>
-    <row r="34" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="169"/>
-      <c r="B34" s="151"/>
+    <row r="34" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="143"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="160"/>
-    </row>
-    <row r="35" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="169"/>
-      <c r="B35" s="151"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="149"/>
+    </row>
+    <row r="35" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="143"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="160"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="169"/>
-      <c r="B36" s="151"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="149"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="143"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="160"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="149"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="169"/>
-      <c r="B37" s="151"/>
+    <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="143"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="160"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="149"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
     </row>
-    <row r="38" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="169"/>
-      <c r="B38" s="151"/>
+    <row r="38" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="143"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="110">
+      <c r="D38" s="93">
         <v>3.5</v>
       </c>
-      <c r="E38" s="110">
+      <c r="E38" s="93">
         <v>15</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="99">
         <v>44424</v>
       </c>
-      <c r="G38" s="110" t="s">
+      <c r="G38" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="H38" s="165"/>
-      <c r="I38" s="160"/>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="169"/>
-      <c r="B39" s="151"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="149"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="143"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111">
+      <c r="D39" s="94"/>
+      <c r="E39" s="94">
         <v>15</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111" t="s">
+      <c r="F39" s="94"/>
+      <c r="G39" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="165"/>
-      <c r="I39" s="160"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="149"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
     </row>
-    <row r="40" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="168" t="s">
+    <row r="40" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="144" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94">
         <v>15</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111" t="s">
+      <c r="F40" s="94"/>
+      <c r="G40" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="165"/>
-      <c r="I40" s="161"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="169"/>
-      <c r="B41" s="151"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="150"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="143"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112">
+      <c r="D41" s="95"/>
+      <c r="E41" s="95">
         <v>16</v>
       </c>
-      <c r="F41" s="112">
+      <c r="F41" s="95">
         <v>44280</v>
       </c>
-      <c r="G41" s="112" t="s">
+      <c r="G41" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="165"/>
-      <c r="I41" s="141">
+      <c r="H41" s="152"/>
+      <c r="I41" s="148">
         <v>4</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="169"/>
-      <c r="B42" s="151"/>
+    <row r="42" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="143"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="95">
+      <c r="D42" s="114">
         <v>3.5</v>
       </c>
-      <c r="E42" s="95">
+      <c r="E42" s="114">
         <v>16</v>
       </c>
-      <c r="F42" s="140">
+      <c r="F42" s="170">
         <v>44425</v>
       </c>
-      <c r="G42" s="141" t="s">
+      <c r="G42" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="165"/>
-      <c r="I42" s="160"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="149"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
     </row>
-    <row r="43" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
-      <c r="B43" s="151"/>
+    <row r="43" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="143"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="160"/>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="169"/>
-      <c r="B44" s="151"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="149"/>
+    </row>
+    <row r="44" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="143"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96">
+      <c r="D44" s="110"/>
+      <c r="E44" s="110">
         <v>16</v>
       </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96" t="s">
+      <c r="F44" s="110"/>
+      <c r="G44" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="165"/>
-      <c r="I44" s="160"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="149"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
     </row>
-    <row r="45" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="169"/>
-      <c r="B45" s="151"/>
+    <row r="45" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="143"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="160"/>
-    </row>
-    <row r="46" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="169"/>
-      <c r="B46" s="151"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="149"/>
+    </row>
+    <row r="46" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="143"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="95">
+      <c r="D46" s="114">
         <v>3.5</v>
       </c>
-      <c r="E46" s="95">
+      <c r="E46" s="114">
         <v>17</v>
       </c>
-      <c r="F46" s="140">
+      <c r="F46" s="170">
         <v>44426</v>
       </c>
-      <c r="G46" s="141" t="s">
+      <c r="G46" s="148" t="s">
         <v>184</v>
       </c>
-      <c r="H46" s="165"/>
-      <c r="I46" s="160"/>
-    </row>
-    <row r="47" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="169"/>
-      <c r="B47" s="151"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="149"/>
+    </row>
+    <row r="47" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="143"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96">
+      <c r="D47" s="110"/>
+      <c r="E47" s="110">
         <v>17</v>
       </c>
-      <c r="F47" s="96">
+      <c r="F47" s="110">
         <v>44281</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="G47" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="165"/>
-      <c r="I47" s="160"/>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="169"/>
-      <c r="B48" s="151"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="149"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="143"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="160"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="149"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
     </row>
-    <row r="49" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="169"/>
-      <c r="B49" s="151"/>
+    <row r="49" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="143"/>
+      <c r="B49" s="145"/>
       <c r="C49" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="160"/>
-    </row>
-    <row r="50" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="167" t="s">
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="149"/>
+    </row>
+    <row r="50" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="63" t="s">
         <v>229</v>
       </c>
@@ -4203,15 +4208,15 @@
       <c r="F50" s="23"/>
       <c r="G50" s="22"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="161"/>
+      <c r="I50" s="150"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="167" t="s">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="167"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="54" t="s">
         <v>204</v>
       </c>
@@ -4232,11 +4237,54 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I17:I40"/>
+    <mergeCell ref="I41:I50"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H22:H32"/>
+    <mergeCell ref="H33:H49"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G28:G30"/>
@@ -4253,49 +4301,6 @@
     <mergeCell ref="F31:F37"/>
     <mergeCell ref="G31:G37"/>
     <mergeCell ref="D46:D49"/>
-    <mergeCell ref="I17:I40"/>
-    <mergeCell ref="I41:I50"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H22:H32"/>
-    <mergeCell ref="H33:H49"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I10:I16"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,62 +4309,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0439A-F51F-494F-AE9A-FC29351BED23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="D31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F49" sqref="F49:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="32" style="18" customWidth="1"/>
     <col min="3" max="3" width="54" style="18" customWidth="1"/>
     <col min="4" max="4" width="12" style="18" customWidth="1"/>
     <col min="5" max="5" width="10" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="6" max="6" width="9.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="187"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="189"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4384,22 +4389,22 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="176"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="192" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
       <c r="H4" s="12"/>
       <c r="I4" s="72"/>
       <c r="J4" s="73"/>
@@ -4417,14 +4422,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -4448,21 +4453,21 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="179"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="75" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="75" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -4506,842 +4511,842 @@
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="180" t="s">
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="178" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="183">
+      <c r="D8" s="180">
         <v>3.5</v>
       </c>
-      <c r="E8" s="183">
+      <c r="E8" s="180">
         <v>18</v>
       </c>
-      <c r="F8" s="185">
+      <c r="F8" s="182">
         <v>44428</v>
       </c>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="187">
+      <c r="I8" s="184">
         <v>4</v>
       </c>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="174" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="150"/>
-      <c r="B9" s="182"/>
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="161"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="191"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="150"/>
-      <c r="B10" s="182"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="174"/>
+    </row>
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="161"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="191"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="150"/>
-      <c r="B11" s="182"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="174"/>
+    </row>
+    <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="161"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="191"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="150"/>
-      <c r="B12" s="182"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="174"/>
+    </row>
+    <row r="12" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="161"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="191"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="150"/>
-      <c r="B13" s="182"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="174"/>
+    </row>
+    <row r="13" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="161"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183">
+      <c r="D13" s="180"/>
+      <c r="E13" s="180">
         <v>19</v>
       </c>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183" t="s">
+      <c r="F13" s="180"/>
+      <c r="G13" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="186"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="191"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="150"/>
-      <c r="B14" s="182"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="174"/>
+    </row>
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="161"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="191"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="150"/>
-      <c r="B15" s="182"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="174"/>
+    </row>
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="161"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184">
+      <c r="D15" s="181"/>
+      <c r="E15" s="181">
         <v>17</v>
       </c>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="191"/>
-    </row>
-    <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="150"/>
-      <c r="B16" s="182"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="174"/>
+    </row>
+    <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="161"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="120">
         <v>3.5</v>
       </c>
-      <c r="E16" s="134">
+      <c r="E16" s="120">
         <v>19</v>
       </c>
-      <c r="F16" s="188">
+      <c r="F16" s="173">
         <v>44431</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="191"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="170" t="s">
+      <c r="H16" s="183"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="174"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="120" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134">
+      <c r="D17" s="120"/>
+      <c r="E17" s="120">
         <v>20</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="190" t="s">
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="183"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="134"/>
+      <c r="I17" s="180"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="146"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="120">
         <v>3.5</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="120">
         <v>20</v>
       </c>
-      <c r="F18" s="188">
+      <c r="F18" s="173">
         <v>44432</v>
       </c>
-      <c r="G18" s="134" t="s">
+      <c r="G18" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="190"/>
-      <c r="I18" s="184"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="189"/>
-      <c r="B19" s="189"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134">
+      <c r="D19" s="120"/>
+      <c r="E19" s="120">
         <v>20</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="120">
         <v>44288</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="190"/>
-      <c r="I19" s="141">
+      <c r="H19" s="185"/>
+      <c r="I19" s="148">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="189"/>
-      <c r="B20" s="189"/>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="172"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="160"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="189"/>
-      <c r="B21" s="189"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="120">
         <v>3.5</v>
       </c>
-      <c r="E21" s="134">
+      <c r="E21" s="120">
         <v>21</v>
       </c>
-      <c r="F21" s="188">
+      <c r="F21" s="173">
         <v>44433</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="190"/>
-      <c r="I21" s="160"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="189"/>
-      <c r="B22" s="189"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="172"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134">
+      <c r="D22" s="120"/>
+      <c r="E22" s="120">
         <v>21</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="120">
         <v>44289</v>
       </c>
-      <c r="G22" s="134" t="s">
+      <c r="G22" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="190"/>
-      <c r="I22" s="160"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="149"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="189"/>
-      <c r="B23" s="189"/>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="172"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134">
+      <c r="D23" s="120"/>
+      <c r="E23" s="120">
         <v>22</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134" t="s">
+      <c r="F23" s="120"/>
+      <c r="G23" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="190"/>
-      <c r="I23" s="160"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="149"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="189"/>
-      <c r="B24" s="189"/>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="172"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="134">
+      <c r="D24" s="120">
         <v>3.5</v>
       </c>
-      <c r="E24" s="134">
+      <c r="E24" s="120">
         <v>22</v>
       </c>
-      <c r="F24" s="188">
+      <c r="F24" s="173">
         <v>44434</v>
       </c>
-      <c r="G24" s="134" t="s">
+      <c r="G24" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="190"/>
-      <c r="I24" s="160"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="149"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="189"/>
-      <c r="B25" s="189"/>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="172"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134">
+      <c r="D25" s="120"/>
+      <c r="E25" s="120">
         <v>23</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="120">
         <v>44289</v>
       </c>
-      <c r="G25" s="134" t="s">
+      <c r="G25" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="134" t="s">
+      <c r="H25" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="160"/>
+      <c r="I25" s="149"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="189"/>
-      <c r="B26" s="189"/>
+    <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134">
+      <c r="D26" s="120"/>
+      <c r="E26" s="120">
         <v>23</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="160"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="189"/>
-      <c r="B27" s="189"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="149"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="172"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="134">
+      <c r="D27" s="120">
         <v>3.5</v>
       </c>
-      <c r="E27" s="134">
+      <c r="E27" s="120">
         <v>23</v>
       </c>
-      <c r="F27" s="188">
+      <c r="F27" s="173">
         <v>44435</v>
       </c>
-      <c r="G27" s="134" t="s">
+      <c r="G27" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="134"/>
-      <c r="I27" s="160"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="170" t="s">
+    <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="120" t="s">
         <v>142</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134">
+      <c r="D28" s="120"/>
+      <c r="E28" s="120">
         <v>24</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="120">
         <v>44290</v>
       </c>
-      <c r="G28" s="134" t="s">
+      <c r="G28" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="134"/>
-      <c r="I28" s="160"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="170"/>
-      <c r="B29" s="134"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="149"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="146"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="160"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="170"/>
-      <c r="B30" s="134"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="149"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="146"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="160"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="149"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="134">
+      <c r="D31" s="120">
         <v>3.5</v>
       </c>
-      <c r="E31" s="134">
+      <c r="E31" s="120">
         <v>24</v>
       </c>
-      <c r="F31" s="188">
+      <c r="F31" s="173">
         <v>44438</v>
       </c>
-      <c r="G31" s="134" t="s">
+      <c r="G31" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="134"/>
-      <c r="I31" s="160"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="149"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="189"/>
-      <c r="B32" s="189"/>
+    <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134">
+      <c r="D32" s="120"/>
+      <c r="E32" s="120">
         <v>20</v>
       </c>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="160"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="189"/>
-      <c r="B33" s="189"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="160"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="149"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="189"/>
-      <c r="B34" s="189"/>
+    <row r="34" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="172"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="160"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="149"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="189"/>
-      <c r="B35" s="189"/>
+    <row r="35" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="172"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="134">
+      <c r="D35" s="120">
         <v>3.5</v>
       </c>
-      <c r="E35" s="134">
+      <c r="E35" s="120">
         <v>25</v>
       </c>
-      <c r="F35" s="188">
+      <c r="F35" s="173">
         <v>44439</v>
       </c>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="134"/>
-      <c r="I35" s="160">
+      <c r="H35" s="120"/>
+      <c r="I35" s="149">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="189"/>
-      <c r="B36" s="189"/>
+    <row r="36" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="172"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="160"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="170" t="s">
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="149"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="120" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="134">
+      <c r="D37" s="120">
         <v>3.5</v>
       </c>
-      <c r="E37" s="134">
+      <c r="E37" s="120">
         <v>26</v>
       </c>
-      <c r="F37" s="188">
+      <c r="F37" s="173">
         <v>44440</v>
       </c>
-      <c r="G37" s="134" t="s">
+      <c r="G37" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="H37" s="134"/>
-      <c r="I37" s="160"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="170"/>
-      <c r="B38" s="134"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="149"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="146"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="160"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="189"/>
-      <c r="B39" s="189"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="149"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134">
+      <c r="D39" s="120"/>
+      <c r="E39" s="120">
         <v>26</v>
       </c>
-      <c r="F39" s="134">
+      <c r="F39" s="120">
         <v>44295</v>
       </c>
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="H39" s="134"/>
-      <c r="I39" s="160"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="149"/>
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
+    <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="160"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="149"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="189"/>
-      <c r="B41" s="189"/>
+    <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="119">
+      <c r="D41" s="96">
         <v>3.5</v>
       </c>
-      <c r="E41" s="119">
+      <c r="E41" s="96">
         <v>27</v>
       </c>
-      <c r="F41" s="135">
+      <c r="F41" s="121">
         <v>44441</v>
       </c>
-      <c r="G41" s="119" t="s">
+      <c r="G41" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="134"/>
-      <c r="I41" s="160"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="149"/>
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="189"/>
-      <c r="B42" s="189"/>
+    <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119">
+      <c r="D42" s="96"/>
+      <c r="E42" s="96">
         <v>27</v>
       </c>
-      <c r="F42" s="119">
+      <c r="F42" s="96">
         <v>44298</v>
       </c>
-      <c r="G42" s="119" t="s">
+      <c r="G42" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="134"/>
-      <c r="I42" s="160"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="149"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
+    <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="160"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="149"/>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="189"/>
-      <c r="B44" s="189"/>
+    <row r="44" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119">
+      <c r="D44" s="96"/>
+      <c r="E44" s="96">
         <v>26</v>
       </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="160"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="189"/>
-      <c r="B45" s="189"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="149"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="172"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="160"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="189"/>
-      <c r="B46" s="189"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="149"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="172"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="119">
+      <c r="D46" s="96">
         <v>3.5</v>
       </c>
-      <c r="E46" s="119">
+      <c r="E46" s="96">
         <v>28</v>
       </c>
-      <c r="F46" s="135">
+      <c r="F46" s="121">
         <v>44442</v>
       </c>
-      <c r="G46" s="119" t="s">
+      <c r="G46" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="134"/>
-      <c r="I46" s="160"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="149"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="189"/>
-      <c r="B47" s="189"/>
+    <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="172"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="160"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="149"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="170" t="s">
+    <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="120" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119">
+      <c r="D48" s="96"/>
+      <c r="E48" s="96">
         <v>29</v>
       </c>
-      <c r="F48" s="119">
+      <c r="F48" s="96">
         <v>44300</v>
       </c>
-      <c r="G48" s="119" t="s">
+      <c r="G48" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="H48" s="134"/>
-      <c r="I48" s="160"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="149"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="189"/>
-      <c r="B49" s="189"/>
+    <row r="49" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="172"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="134">
+      <c r="D49" s="120">
         <v>3.5</v>
       </c>
-      <c r="E49" s="134">
+      <c r="E49" s="120">
         <v>29</v>
       </c>
-      <c r="F49" s="188">
+      <c r="F49" s="173">
         <v>44446</v>
       </c>
-      <c r="G49" s="134" t="s">
+      <c r="G49" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H49" s="134"/>
-      <c r="I49" s="160"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="189"/>
-      <c r="B50" s="189"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="149"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="160"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="149"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="189"/>
-      <c r="B51" s="189"/>
+    <row r="51" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="160"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="189"/>
-      <c r="B52" s="189"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="149"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="172"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="160"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="189"/>
-      <c r="B53" s="189"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="149"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="172"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="160"/>
-    </row>
-    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="192" t="s">
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="149"/>
+    </row>
+    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="192"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="63" t="s">
         <v>220</v>
       </c>
@@ -5354,14 +5359,14 @@
       <c r="F54" s="90"/>
       <c r="G54" s="70"/>
       <c r="H54" s="69"/>
-      <c r="I54" s="161"/>
+      <c r="I54" s="150"/>
       <c r="J54" s="81"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="192" t="s">
+    <row r="56" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="171" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="192"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="54" t="s">
         <v>205</v>
       </c>
@@ -5384,23 +5389,47 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="I8:I18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="H17:H24"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="J8:J16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I19:I34"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
     <mergeCell ref="I35:I54"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E46:E48"/>
@@ -5417,47 +5446,23 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="E49:E53"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="I19:I34"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="J8:J16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="H8:H16"/>
-    <mergeCell ref="I8:I18"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="H17:H24"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="D49:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5465,7 +5470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3782B2-D687-4593-BE61-3A5D35BA8143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5475,52 +5480,52 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="18" customWidth="1"/>
     <col min="5" max="5" width="15" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="18"/>
+    <col min="6" max="6" width="11.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="187"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-    </row>
-    <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -5544,14 +5549,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -5574,14 +5579,14 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="10">
         <v>2</v>
       </c>
@@ -5604,14 +5609,14 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="10">
         <v>2</v>
       </c>
@@ -5634,20 +5639,20 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-    </row>
-    <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+    </row>
+    <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -5690,332 +5695,332 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="203" t="s">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="197" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="120">
         <v>3.5</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="120">
         <v>30</v>
       </c>
-      <c r="F9" s="188">
+      <c r="F9" s="173">
         <v>44448</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="120" t="s">
         <v>185</v>
       </c>
       <c r="H9" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="120">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="204"/>
-      <c r="B10" s="204"/>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="194"/>
-      <c r="I10" s="134"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="205"/>
-      <c r="B11" s="205"/>
+      <c r="I10" s="120"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="194"/>
-      <c r="I11" s="134"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="205"/>
-      <c r="B12" s="205"/>
+      <c r="I11" s="120"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="194"/>
-      <c r="I12" s="134"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="205"/>
-      <c r="B13" s="205"/>
+      <c r="I12" s="120"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="194"/>
-      <c r="I13" s="134"/>
-    </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="205"/>
-      <c r="B14" s="205"/>
+      <c r="I13" s="120"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="194"/>
-      <c r="I14" s="134"/>
-    </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="205"/>
-      <c r="B15" s="205"/>
+      <c r="I14" s="120"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="199"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="194"/>
-      <c r="I15" s="134"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="205"/>
-      <c r="B16" s="205"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="199"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="194"/>
-      <c r="I16" s="134"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="205"/>
-      <c r="B17" s="205"/>
+      <c r="I16" s="120"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="199"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="120">
         <v>3.5</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="120">
         <v>31</v>
       </c>
-      <c r="F17" s="188">
+      <c r="F17" s="173">
         <v>44449</v>
       </c>
-      <c r="G17" s="134" t="s">
+      <c r="G17" s="120" t="s">
         <v>186</v>
       </c>
       <c r="H17" s="194"/>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="205"/>
-      <c r="B18" s="205"/>
+      <c r="I17" s="120"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="199"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
       <c r="H18" s="194"/>
-      <c r="I18" s="134"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="205"/>
-      <c r="B19" s="205"/>
+      <c r="I18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="199"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="194"/>
-      <c r="I19" s="134"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="205"/>
-      <c r="B20" s="205"/>
+      <c r="I19" s="120"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="199"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="194"/>
-      <c r="I20" s="134"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="205"/>
-      <c r="B21" s="205"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134">
+      <c r="D21" s="120"/>
+      <c r="E21" s="120">
         <v>29</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="195"/>
-      <c r="I21" s="134"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="205"/>
-      <c r="B22" s="205"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="199"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134">
+      <c r="D22" s="120"/>
+      <c r="E22" s="120">
         <v>32</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134" t="s">
+      <c r="F22" s="120"/>
+      <c r="G22" s="120" t="s">
         <v>183</v>
       </c>
       <c r="H22" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="134"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="205"/>
-      <c r="B23" s="205"/>
+      <c r="I22" s="120"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="199"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="194"/>
-      <c r="I23" s="134"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="205"/>
-      <c r="B24" s="205"/>
+      <c r="I23" s="120"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="194"/>
-      <c r="I24" s="134"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="201" t="s">
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="205" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="134">
+      <c r="D25" s="120">
         <v>3.5</v>
       </c>
-      <c r="E25" s="134">
+      <c r="E25" s="120">
         <v>32</v>
       </c>
-      <c r="F25" s="188">
+      <c r="F25" s="173">
         <v>44452</v>
       </c>
-      <c r="G25" s="134" t="s">
+      <c r="G25" s="120" t="s">
         <v>182</v>
       </c>
       <c r="H25" s="194"/>
-      <c r="I25" s="134"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="201"/>
-      <c r="B26" s="201"/>
+      <c r="I25" s="120"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="205"/>
+      <c r="B26" s="205"/>
       <c r="C26" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134">
+      <c r="D26" s="120"/>
+      <c r="E26" s="120">
         <v>30</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="195"/>
-      <c r="I26" s="134"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="201"/>
-      <c r="B27" s="201"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="205"/>
+      <c r="B27" s="205"/>
       <c r="C27" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134">
+      <c r="D27" s="120"/>
+      <c r="E27" s="120">
         <v>33</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134" t="s">
+      <c r="F27" s="120"/>
+      <c r="G27" s="120" t="s">
         <v>184</v>
       </c>
       <c r="H27" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="134"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="201"/>
-      <c r="B28" s="201"/>
+      <c r="I27" s="120"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="205"/>
+      <c r="B28" s="205"/>
       <c r="C28" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="194"/>
-      <c r="I28" s="134"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="201"/>
-      <c r="B29" s="201"/>
+      <c r="I28" s="120"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="205"/>
+      <c r="B29" s="205"/>
       <c r="C29" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="195"/>
-      <c r="I29" s="134"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="120"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89"/>
       <c r="B30" s="88"/>
       <c r="C30" s="87"/>
@@ -6026,7 +6031,7 @@
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="89"/>
       <c r="B31" s="88"/>
       <c r="C31" s="87"/>
@@ -6037,11 +6042,11 @@
       <c r="H31" s="85"/>
       <c r="I31" s="85"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="200" t="s">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="200"/>
+      <c r="B32" s="204"/>
       <c r="C32" s="76" t="s">
         <v>230</v>
       </c>
@@ -6060,11 +6065,11 @@
       </c>
       <c r="I32" s="66"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="196" t="s">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="200" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="197"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="76" t="s">
         <v>201</v>
       </c>
@@ -6081,13 +6086,13 @@
       <c r="H34" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="99">
+      <c r="I34" s="131">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="198"/>
-      <c r="B35" s="199"/>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="202"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="76" t="s">
         <v>202</v>
       </c>
@@ -6104,10 +6109,24 @@
       <c r="H35" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="99"/>
+      <c r="I35" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="I9:I29"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="G25:G29"/>
@@ -6124,20 +6143,6 @@
     <mergeCell ref="B9:B24"/>
     <mergeCell ref="D9:D16"/>
     <mergeCell ref="E9:E16"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="I9:I29"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6145,30 +6150,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B57DE4-DFF6-4792-8DDA-F8BAFCDD046C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+    <row r="1" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="212" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>191</v>
       </c>
@@ -6182,8 +6187,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="207" t="s">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="213" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -6196,8 +6201,8 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="208"/>
+    <row r="4" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="214"/>
       <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
@@ -6208,8 +6213,8 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="208"/>
+    <row r="5" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="214"/>
       <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
@@ -6220,24 +6225,24 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="209"/>
-      <c r="B6" s="216" t="s">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="215"/>
+      <c r="B6" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="215"/>
+      <c r="C6" s="218"/>
       <c r="D6" s="49">
         <v>44413</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="210"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="207" t="s">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="209"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="211"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="213" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -6250,8 +6255,8 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="208"/>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="214"/>
       <c r="B9" s="37" t="s">
         <v>4</v>
       </c>
@@ -6262,8 +6267,8 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="208"/>
+    <row r="10" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="214"/>
       <c r="B10" s="37" t="s">
         <v>6</v>
       </c>
@@ -6274,34 +6279,34 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="208"/>
-      <c r="B11" s="213" t="s">
+    <row r="11" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="214"/>
+      <c r="B11" s="216" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="215"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="53">
         <v>44427</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="209"/>
-      <c r="B12" s="213" t="s">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="215"/>
+      <c r="B12" s="216" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="214"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="53">
         <v>44428</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="210"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="207" t="s">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="209"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="211"/>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="213" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -6314,8 +6319,8 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="208"/>
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="214"/>
       <c r="B15" s="37" t="s">
         <v>4</v>
       </c>
@@ -6326,8 +6331,8 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="208"/>
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="214"/>
       <c r="B16" s="37" t="s">
         <v>6</v>
       </c>
@@ -6338,8 +6343,8 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="208"/>
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="214"/>
       <c r="B17" s="37" t="s">
         <v>46</v>
       </c>
@@ -6350,8 +6355,8 @@
         <v>44445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="208"/>
+    <row r="18" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="214"/>
       <c r="B18" s="37" t="s">
         <v>158</v>
       </c>
@@ -6362,33 +6367,33 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="208"/>
-      <c r="B19" s="213" t="s">
+    <row r="19" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="214"/>
+      <c r="B19" s="216" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="215"/>
+      <c r="C19" s="218"/>
       <c r="D19" s="53">
         <v>44447</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="209"/>
-      <c r="B20" s="213" t="s">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="215"/>
+      <c r="B20" s="216" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="214"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="53">
         <v>44448</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="210"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="212"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="209"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>194</v>
       </c>
@@ -6402,47 +6407,42 @@
         <v>44452</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="210"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="212"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="217" t="s">
+    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="209"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="206" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="217"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-    </row>
-    <row r="26" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="218" t="s">
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+    </row>
+    <row r="26" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="219"/>
-      <c r="C26" s="219"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="53">
         <v>44454</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="218" t="s">
+    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="53">
         <v>44456</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
@@ -6454,6 +6454,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6462,22 +6467,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E548DC5-A6AA-4309-A55F-3CAC5CFD42AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>191</v>
       </c>
@@ -6494,8 +6499,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="207" t="s">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="213" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -6511,8 +6516,8 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="208"/>
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="214"/>
       <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
@@ -6526,15 +6531,15 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="207" t="s">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="211"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="213" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -6550,8 +6555,8 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="208"/>
+    <row r="6" spans="1:5" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="214"/>
       <c r="B6" s="57" t="s">
         <v>212</v>
       </c>
@@ -6565,8 +6570,8 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="208"/>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="214"/>
       <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
@@ -6580,8 +6585,8 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="209"/>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="215"/>
       <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
@@ -6595,22 +6600,22 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="210"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="212"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="97" t="s">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="209"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="211"/>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="108" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="D10" s="65">
         <v>2</v>
@@ -6619,13 +6624,13 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="108"/>
       <c r="B11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="D11" s="22">
         <v>3</v>
